--- a/biology/Neurosciences/Radiation_optique/Radiation_optique.xlsx
+++ b/biology/Neurosciences/Radiation_optique/Radiation_optique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La radiation optique désigne le faisceau d'axones issus des neurones de projection du corps géniculé latéral appartenant au thalamus et se terminant au niveau de la scissure calcarine du cortex occipital ipsilatéral.
 Ces voies nerveuses contribuent à la transmission de l'information visuelle consciente si bien qu'une lésion d'une radiation optique conduit à une quadranopsie, la perte partielle ou totale d'un quart d'un hémi champ visuel.
